--- a/m1.xlsx
+++ b/m1.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snipe_000\Documents\dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ethan\Desktop\xlmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -42,70 +42,17 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59996337778862885"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="5">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="1">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="double">
-        <color auto="1"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -116,7 +63,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -124,15 +73,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -151,17 +91,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
@@ -169,30 +123,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,149 +404,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" showRuler="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="41.5" customWidth="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="115.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:2" ht="56.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4"/>
+      <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4"/>
-      <c r="B2" s="10">
-        <v>123</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E3:G3"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>